--- a/Data Sets/GeoData/Lucban LGU (Mayor).xlsx
+++ b/Data Sets/GeoData/Lucban LGU (Mayor).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\public_files\Data Sets\GeoData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6512E4-7397-4C93-8F3A-CE47D76C5253}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B10BC-7428-4D64-93C3-CAF271E216FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{342A8AFD-CF01-429C-BF60-3095EFAC95BD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="53">
   <si>
     <t>NAME_1</t>
   </si>
@@ -153,6 +153,42 @@
   </si>
   <si>
     <t>Palola</t>
+  </si>
+  <si>
+    <t>NAME_3</t>
+  </si>
+  <si>
+    <t>Barangay1</t>
+  </si>
+  <si>
+    <t>Barangay2</t>
+  </si>
+  <si>
+    <t>Barangay3</t>
+  </si>
+  <si>
+    <t>Barangay4</t>
+  </si>
+  <si>
+    <t>Barangay5</t>
+  </si>
+  <si>
+    <t>Barangay6</t>
+  </si>
+  <si>
+    <t>Barangay7</t>
+  </si>
+  <si>
+    <t>Barangay8</t>
+  </si>
+  <si>
+    <t>Barangay9</t>
+  </si>
+  <si>
+    <t>Barangay10</t>
+  </si>
+  <si>
+    <t>MahabangParang</t>
   </si>
 </sst>
 </file>
@@ -504,20 +540,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5586F4B2-0374-4A40-B64A-E3CE3E1540A0}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,13 +562,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -542,10 +582,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -556,10 +599,13 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -570,10 +616,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -584,10 +633,13 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -595,13 +647,16 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -609,13 +664,16 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -623,13 +681,16 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -637,13 +698,16 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -651,13 +715,16 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -665,13 +732,16 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -679,13 +749,16 @@
         <v>39</v>
       </c>
       <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -693,13 +766,16 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -707,13 +783,16 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -721,13 +800,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -738,10 +820,13 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -752,10 +837,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -766,10 +854,13 @@
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -780,10 +871,13 @@
         <v>22</v>
       </c>
       <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -794,10 +888,13 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -808,10 +905,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -822,10 +922,13 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -833,13 +936,16 @@
         <v>39</v>
       </c>
       <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -850,10 +956,13 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -864,10 +973,13 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -878,10 +990,13 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -892,10 +1007,13 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -906,10 +1024,13 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -920,10 +1041,13 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -934,10 +1058,13 @@
         <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -948,10 +1075,13 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -962,10 +1092,13 @@
         <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -976,6 +1109,9 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
         <v>6</v>
       </c>
     </row>
